--- a/Story/Brainstorm&Uitwerking_verhaal_Jelle.xlsx
+++ b/Story/Brainstorm&Uitwerking_verhaal_Jelle.xlsx
@@ -74,9 +74,6 @@
     <t>Tot je verbazing komt er geen water uit de kraan, maar bloed.</t>
   </si>
   <si>
-    <t>Je draait snel het bad weer dicht en gaat uit de badkuip.</t>
-  </si>
-  <si>
     <t>Je komt in een lange gang terecht.</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Je kijkt om je heen en ziet niets dan alleen  een badkuip.</t>
+  </si>
+  <si>
+    <t>Je draait snel de kraan weer dicht en gaat uit de badkuip.</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
   <dimension ref="B2:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -765,7 +765,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -781,17 +781,17 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -802,32 +802,32 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H26" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -839,44 +839,44 @@
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H33" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="P36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H38" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.25">
@@ -884,27 +884,27 @@
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H42" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H43" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H45" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H46" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="8:18" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.25">
@@ -914,27 +914,27 @@
     </row>
     <row r="51" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H51" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="8:14" x14ac:dyDescent="0.25">
@@ -948,39 +948,39 @@
     </row>
     <row r="57" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="L57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M57" s="8"/>
       <c r="N57" s="5"/>
     </row>
     <row r="59" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H59" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H60" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="8:14" x14ac:dyDescent="0.25">
@@ -990,29 +990,29 @@
     </row>
     <row r="65" spans="8:12" x14ac:dyDescent="0.25">
       <c r="J65" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
     </row>
     <row r="67" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H67" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
